--- a/photo-source/B-树.xlsx
+++ b/photo-source/B-树.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27261" windowHeight="12196"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>根结点</t>
   </si>
@@ -32,18 +32,21 @@
   <si>
     <t>叶子结点（数据）</t>
   </si>
+  <si>
+    <t>B-树的结构</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +62,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -89,29 +86,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +115,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -148,55 +176,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,8 +197,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,7 +247,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +331,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,78 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,72 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +485,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,30 +552,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,195 +582,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,6 +757,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -855,8 +852,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4042410" y="875030"/>
-          <a:ext cx="1647825" cy="647700"/>
+          <a:off x="4004310" y="878205"/>
+          <a:ext cx="1632585" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -902,8 +899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191885" y="894080"/>
-          <a:ext cx="1520825" cy="628650"/>
+          <a:off x="6133465" y="897255"/>
+          <a:ext cx="1505585" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -949,8 +946,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2156460" y="1675130"/>
-          <a:ext cx="1285875" cy="685800"/>
+          <a:off x="2136140" y="1678305"/>
+          <a:ext cx="1275715" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -996,7 +993,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3953510" y="1703705"/>
+          <a:off x="3917950" y="1706880"/>
           <a:ext cx="85725" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1043,8 +1040,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4417060" y="1656080"/>
-          <a:ext cx="1130300" cy="695325"/>
+          <a:off x="4376420" y="1659255"/>
+          <a:ext cx="1117600" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1090,8 +1087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7131685" y="1694180"/>
-          <a:ext cx="428625" cy="676275"/>
+          <a:off x="7063105" y="1697355"/>
+          <a:ext cx="426085" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1137,8 +1134,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8131810" y="1694180"/>
-          <a:ext cx="1000125" cy="676275"/>
+          <a:off x="8055610" y="1697355"/>
+          <a:ext cx="989965" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1184,7 +1181,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1626235" y="2551430"/>
+          <a:off x="1612265" y="2554605"/>
           <a:ext cx="9525" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1231,7 +1228,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2327910" y="2532380"/>
+          <a:off x="2307590" y="2535555"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1278,7 +1275,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3172460" y="2560955"/>
+          <a:off x="3144520" y="2564130"/>
           <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1325,7 +1322,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3664585" y="2551430"/>
+          <a:off x="3631565" y="2554605"/>
           <a:ext cx="0" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1372,7 +1369,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4185285" y="2532380"/>
+          <a:off x="4147185" y="2535555"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1419,7 +1416,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4677410" y="2532380"/>
+          <a:off x="4634230" y="2535555"/>
           <a:ext cx="9525" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1466,7 +1463,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5458460" y="2551430"/>
+          <a:off x="5407660" y="2554605"/>
           <a:ext cx="9525" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1513,7 +1510,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5941060" y="2551430"/>
+          <a:off x="5885180" y="2554605"/>
           <a:ext cx="19050" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1560,7 +1557,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6693535" y="2551430"/>
+          <a:off x="6630035" y="2554605"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1607,7 +1604,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7274560" y="2560955"/>
+          <a:off x="7205980" y="2564130"/>
           <a:ext cx="19050" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1654,7 +1651,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7855585" y="2541905"/>
+          <a:off x="7781925" y="2545080"/>
           <a:ext cx="28575" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1701,7 +1698,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8712835" y="2532380"/>
+          <a:off x="8631555" y="2535555"/>
           <a:ext cx="0" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1748,7 +1745,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9284335" y="2541905"/>
+          <a:off x="9197975" y="2545080"/>
           <a:ext cx="38100" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2065,30 +2062,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG14"/>
+  <dimension ref="C2:AG16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="3.5045871559633" customWidth="1"/>
-    <col min="3" max="3" width="8.51376146788991" customWidth="1"/>
-    <col min="4" max="4" width="5.88990825688073" customWidth="1"/>
-    <col min="5" max="6" width="4.24770642201835" customWidth="1"/>
-    <col min="7" max="7" width="4.37614678899083" customWidth="1"/>
-    <col min="8" max="8" width="4.12844036697248" customWidth="1"/>
-    <col min="9" max="22" width="3.62385321100917" customWidth="1"/>
-    <col min="23" max="33" width="4.12844036697248" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="8.50925925925926" customWidth="1"/>
+    <col min="4" max="4" width="5.88888888888889" customWidth="1"/>
+    <col min="5" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="4.37962962962963" customWidth="1"/>
+    <col min="8" max="8" width="4.12962962962963" customWidth="1"/>
+    <col min="9" max="22" width="3.62037037037037" customWidth="1"/>
+    <col min="23" max="33" width="4.12962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21.75" customHeight="1"/>
     <row r="3" ht="21.75" customHeight="1" spans="19:20">
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="11"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="3:21">
       <c r="C4" s="1" t="s">
@@ -2137,7 +2134,7 @@
       <c r="M7" s="8">
         <v>30</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="12"/>
       <c r="Y7" s="3">
         <v>1</v>
       </c>
@@ -2240,13 +2237,48 @@
     </row>
     <row r="13" ht="22.5" customHeight="1"/>
     <row r="14" ht="20.25" customHeight="1"/>
+    <row r="15" spans="7:20">
+      <c r="G15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="7:20">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G15:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2264,7 +2296,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2280,7 +2312,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
